--- a/new_data/btc_data.xlsx
+++ b/new_data/btc_data.xlsx
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L947"/>
+  <dimension ref="A1:L987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36127,6 +36127,1526 @@
         <v>0.01942806433985995</v>
       </c>
     </row>
+    <row r="948" spans="1:12">
+      <c r="A948" s="2">
+        <v>43529</v>
+      </c>
+      <c r="B948">
+        <v>3759.83</v>
+      </c>
+      <c r="C948">
+        <v>3903.92</v>
+      </c>
+      <c r="D948">
+        <v>3745.18</v>
+      </c>
+      <c r="E948">
+        <v>3896.38</v>
+      </c>
+      <c r="F948">
+        <v>10174126415</v>
+      </c>
+      <c r="G948">
+        <v>68470655400</v>
+      </c>
+      <c r="H948">
+        <v>0.03521415198399325</v>
+      </c>
+      <c r="I948">
+        <v>0.02677291912046083</v>
+      </c>
+      <c r="J948">
+        <v>4.961759267034295</v>
+      </c>
+      <c r="K948">
+        <v>-0.1164408505495078</v>
+      </c>
+      <c r="L948">
+        <v>0.02022508864596812</v>
+      </c>
+    </row>
+    <row r="949" spans="1:12">
+      <c r="A949" s="2">
+        <v>43530</v>
+      </c>
+      <c r="B949">
+        <v>3897.08</v>
+      </c>
+      <c r="C949">
+        <v>3919.51</v>
+      </c>
+      <c r="D949">
+        <v>3871.46</v>
+      </c>
+      <c r="E949">
+        <v>3903.94</v>
+      </c>
+      <c r="F949">
+        <v>9175291529</v>
+      </c>
+      <c r="G949">
+        <v>68609885776</v>
+      </c>
+      <c r="H949">
+        <v>0.001938382622025614</v>
+      </c>
+      <c r="I949">
+        <v>0.02675694668976933</v>
+      </c>
+      <c r="J949">
+        <v>4.983881475859124</v>
+      </c>
+      <c r="K949">
+        <v>-0.1297572795703143</v>
+      </c>
+      <c r="L949">
+        <v>0.02024690152155511</v>
+      </c>
+    </row>
+    <row r="950" spans="1:12">
+      <c r="A950" s="2">
+        <v>43531</v>
+      </c>
+      <c r="B950">
+        <v>3903.38</v>
+      </c>
+      <c r="C950">
+        <v>3939.37</v>
+      </c>
+      <c r="D950">
+        <v>3894.11</v>
+      </c>
+      <c r="E950">
+        <v>3911.48</v>
+      </c>
+      <c r="F950">
+        <v>9584165519</v>
+      </c>
+      <c r="G950">
+        <v>68749421311</v>
+      </c>
+      <c r="H950">
+        <v>0.001929519421684844</v>
+      </c>
+      <c r="I950">
+        <v>0.02675734477764035</v>
+      </c>
+      <c r="J950">
+        <v>4.983273660700993</v>
+      </c>
+      <c r="K950">
+        <v>-0.1291439146431779</v>
+      </c>
+      <c r="L950">
+        <v>0.02023780619084385</v>
+      </c>
+    </row>
+    <row r="951" spans="1:12">
+      <c r="A951" s="2">
+        <v>43532</v>
+      </c>
+      <c r="B951">
+        <v>3913.23</v>
+      </c>
+      <c r="C951">
+        <v>3950.43</v>
+      </c>
+      <c r="D951">
+        <v>3875.23</v>
+      </c>
+      <c r="E951">
+        <v>3901.13</v>
+      </c>
+      <c r="F951">
+        <v>10638638944</v>
+      </c>
+      <c r="G951">
+        <v>68574579320</v>
+      </c>
+      <c r="H951">
+        <v>-0.00264956424419438</v>
+      </c>
+      <c r="I951">
+        <v>0.0265413793405212</v>
+      </c>
+      <c r="J951">
+        <v>5.256196259890105</v>
+      </c>
+      <c r="K951">
+        <v>-0.1696944131719464</v>
+      </c>
+      <c r="L951">
+        <v>0.01967082962108922</v>
+      </c>
+    </row>
+    <row r="952" spans="1:12">
+      <c r="A952" s="2">
+        <v>43533</v>
+      </c>
+      <c r="B952">
+        <v>3894.55</v>
+      </c>
+      <c r="C952">
+        <v>3987.24</v>
+      </c>
+      <c r="D952">
+        <v>3892.39</v>
+      </c>
+      <c r="E952">
+        <v>3963.31</v>
+      </c>
+      <c r="F952">
+        <v>10796103518</v>
+      </c>
+      <c r="G952">
+        <v>69674508655</v>
+      </c>
+      <c r="H952">
+        <v>0.01581327995922166</v>
+      </c>
+      <c r="I952">
+        <v>0.0265680394518779</v>
+      </c>
+      <c r="J952">
+        <v>5.24638106213581</v>
+      </c>
+      <c r="K952">
+        <v>-0.2457361346064488</v>
+      </c>
+      <c r="L952">
+        <v>0.02016736021256247</v>
+      </c>
+    </row>
+    <row r="953" spans="1:12">
+      <c r="A953" s="2">
+        <v>43534</v>
+      </c>
+      <c r="B953">
+        <v>3966.17</v>
+      </c>
+      <c r="C953">
+        <v>3966.17</v>
+      </c>
+      <c r="D953">
+        <v>3924.38</v>
+      </c>
+      <c r="E953">
+        <v>3951.6</v>
+      </c>
+      <c r="F953">
+        <v>9713267607</v>
+      </c>
+      <c r="G953">
+        <v>69475297370</v>
+      </c>
+      <c r="H953">
+        <v>-0.002958974528816327</v>
+      </c>
+      <c r="I953">
+        <v>0.02300490606711715</v>
+      </c>
+      <c r="J953">
+        <v>7.513917645289473</v>
+      </c>
+      <c r="K953">
+        <v>-1.079072364152233</v>
+      </c>
+      <c r="L953">
+        <v>0.01697159632576588</v>
+      </c>
+    </row>
+    <row r="954" spans="1:12">
+      <c r="A954" s="2">
+        <v>43535</v>
+      </c>
+      <c r="B954">
+        <v>3953.74</v>
+      </c>
+      <c r="C954">
+        <v>3966.38</v>
+      </c>
+      <c r="D954">
+        <v>3889.24</v>
+      </c>
+      <c r="E954">
+        <v>3905.23</v>
+      </c>
+      <c r="F954">
+        <v>10125901903</v>
+      </c>
+      <c r="G954">
+        <v>68666928025</v>
+      </c>
+      <c r="H954">
+        <v>-0.01180387978337016</v>
+      </c>
+      <c r="I954">
+        <v>0.02315216539695105</v>
+      </c>
+      <c r="J954">
+        <v>7.15741760646184</v>
+      </c>
+      <c r="K954">
+        <v>-1.007099337992163</v>
+      </c>
+      <c r="L954">
+        <v>0.01743050982373954</v>
+      </c>
+    </row>
+    <row r="955" spans="1:12">
+      <c r="A955" s="2">
+        <v>43536</v>
+      </c>
+      <c r="B955">
+        <v>3903.76</v>
+      </c>
+      <c r="C955">
+        <v>3926.89</v>
+      </c>
+      <c r="D955">
+        <v>3863.56</v>
+      </c>
+      <c r="E955">
+        <v>3909.16</v>
+      </c>
+      <c r="F955">
+        <v>9809887079</v>
+      </c>
+      <c r="G955">
+        <v>68743000581</v>
+      </c>
+      <c r="H955">
+        <v>0.001005836752794309</v>
+      </c>
+      <c r="I955">
+        <v>0.02314540971561347</v>
+      </c>
+      <c r="J955">
+        <v>7.142232712122362</v>
+      </c>
+      <c r="K955">
+        <v>-0.9888462548947482</v>
+      </c>
+      <c r="L955">
+        <v>0.01724554411593945</v>
+      </c>
+    </row>
+    <row r="956" spans="1:12">
+      <c r="A956" s="2">
+        <v>43537</v>
+      </c>
+      <c r="B956">
+        <v>3913.05</v>
+      </c>
+      <c r="C956">
+        <v>3926.6</v>
+      </c>
+      <c r="D956">
+        <v>3891.9</v>
+      </c>
+      <c r="E956">
+        <v>3906.72</v>
+      </c>
+      <c r="F956">
+        <v>9469184841</v>
+      </c>
+      <c r="G956">
+        <v>68706700381</v>
+      </c>
+      <c r="H956">
+        <v>-0.0006243698929022656</v>
+      </c>
+      <c r="I956">
+        <v>0.02301518082587883</v>
+      </c>
+      <c r="J956">
+        <v>7.449957732794731</v>
+      </c>
+      <c r="K956">
+        <v>-1.048723157414941</v>
+      </c>
+      <c r="L956">
+        <v>0.01676825091650295</v>
+      </c>
+    </row>
+    <row r="957" spans="1:12">
+      <c r="A957" s="2">
+        <v>43538</v>
+      </c>
+      <c r="B957">
+        <v>3905.58</v>
+      </c>
+      <c r="C957">
+        <v>3946.5</v>
+      </c>
+      <c r="D957">
+        <v>3901.3</v>
+      </c>
+      <c r="E957">
+        <v>3924.37</v>
+      </c>
+      <c r="F957">
+        <v>10480789570</v>
+      </c>
+      <c r="G957">
+        <v>69024696307</v>
+      </c>
+      <c r="H957">
+        <v>0.004507681532491148</v>
+      </c>
+      <c r="I957">
+        <v>0.02301807217990943</v>
+      </c>
+      <c r="J957">
+        <v>7.466380230560702</v>
+      </c>
+      <c r="K957">
+        <v>-1.062772444103462</v>
+      </c>
+      <c r="L957">
+        <v>0.01690178775257528</v>
+      </c>
+    </row>
+    <row r="958" spans="1:12">
+      <c r="A958" s="2">
+        <v>43539</v>
+      </c>
+      <c r="B958">
+        <v>3926.66</v>
+      </c>
+      <c r="C958">
+        <v>3968.54</v>
+      </c>
+      <c r="D958">
+        <v>3914.02</v>
+      </c>
+      <c r="E958">
+        <v>3960.91</v>
+      </c>
+      <c r="F958">
+        <v>9394210605</v>
+      </c>
+      <c r="G958">
+        <v>69675002377</v>
+      </c>
+      <c r="H958">
+        <v>0.009267968049481823</v>
+      </c>
+      <c r="I958">
+        <v>0.02299653485296956</v>
+      </c>
+      <c r="J958">
+        <v>7.617379051606515</v>
+      </c>
+      <c r="K958">
+        <v>-1.133687924260537</v>
+      </c>
+      <c r="L958">
+        <v>0.01704455223610686</v>
+      </c>
+    </row>
+    <row r="959" spans="1:12">
+      <c r="A959" s="2">
+        <v>43540</v>
+      </c>
+      <c r="B959">
+        <v>3963.9</v>
+      </c>
+      <c r="C959">
+        <v>4077.04</v>
+      </c>
+      <c r="D959">
+        <v>3961.66</v>
+      </c>
+      <c r="E959">
+        <v>4048.73</v>
+      </c>
+      <c r="F959">
+        <v>9856166973</v>
+      </c>
+      <c r="G959">
+        <v>71227967573</v>
+      </c>
+      <c r="H959">
+        <v>0.02192945484829067</v>
+      </c>
+      <c r="I959">
+        <v>0.0232126946356398</v>
+      </c>
+      <c r="J959">
+        <v>7.430419141445707</v>
+      </c>
+      <c r="K959">
+        <v>-1.201494926036345</v>
+      </c>
+      <c r="L959">
+        <v>0.01781176004427036</v>
+      </c>
+    </row>
+    <row r="960" spans="1:12">
+      <c r="A960" s="2">
+        <v>43541</v>
+      </c>
+      <c r="B960">
+        <v>4047.72</v>
+      </c>
+      <c r="C960">
+        <v>4054.12</v>
+      </c>
+      <c r="D960">
+        <v>4006.41</v>
+      </c>
+      <c r="E960">
+        <v>4025.23</v>
+      </c>
+      <c r="F960">
+        <v>8221625400</v>
+      </c>
+      <c r="G960">
+        <v>70821939585</v>
+      </c>
+      <c r="H960">
+        <v>-0.005821199599887805</v>
+      </c>
+      <c r="I960">
+        <v>0.02327430235858514</v>
+      </c>
+      <c r="J960">
+        <v>7.264525847409899</v>
+      </c>
+      <c r="K960">
+        <v>-1.162702057035031</v>
+      </c>
+      <c r="L960">
+        <v>0.01801853884419233</v>
+      </c>
+    </row>
+    <row r="961" spans="1:12">
+      <c r="A961" s="2">
+        <v>43542</v>
+      </c>
+      <c r="B961">
+        <v>4029.97</v>
+      </c>
+      <c r="C961">
+        <v>4071.56</v>
+      </c>
+      <c r="D961">
+        <v>4009.12</v>
+      </c>
+      <c r="E961">
+        <v>4032.51</v>
+      </c>
+      <c r="F961">
+        <v>9646954186</v>
+      </c>
+      <c r="G961">
+        <v>70958165407</v>
+      </c>
+      <c r="H961">
+        <v>0.001806958770281142</v>
+      </c>
+      <c r="I961">
+        <v>0.02327566868627022</v>
+      </c>
+      <c r="J961">
+        <v>7.256921184282019</v>
+      </c>
+      <c r="K961">
+        <v>-1.159424352604492</v>
+      </c>
+      <c r="L961">
+        <v>0.01798706620102427</v>
+      </c>
+    </row>
+    <row r="962" spans="1:12">
+      <c r="A962" s="2">
+        <v>43543</v>
+      </c>
+      <c r="B962">
+        <v>4032.69</v>
+      </c>
+      <c r="C962">
+        <v>4082.22</v>
+      </c>
+      <c r="D962">
+        <v>4023.81</v>
+      </c>
+      <c r="E962">
+        <v>4071.19</v>
+      </c>
+      <c r="F962">
+        <v>9344919956</v>
+      </c>
+      <c r="G962">
+        <v>71647703828</v>
+      </c>
+      <c r="H962">
+        <v>0.009546329145861066</v>
+      </c>
+      <c r="I962">
+        <v>0.02324829246766556</v>
+      </c>
+      <c r="J962">
+        <v>7.287123048869352</v>
+      </c>
+      <c r="K962">
+        <v>-1.153121919604389</v>
+      </c>
+      <c r="L962">
+        <v>0.01787089717270246</v>
+      </c>
+    </row>
+    <row r="963" spans="1:12">
+      <c r="A963" s="2">
+        <v>43544</v>
+      </c>
+      <c r="B963">
+        <v>4070.79</v>
+      </c>
+      <c r="C963">
+        <v>4089.46</v>
+      </c>
+      <c r="D963">
+        <v>4031.11</v>
+      </c>
+      <c r="E963">
+        <v>4087.48</v>
+      </c>
+      <c r="F963">
+        <v>10175916388</v>
+      </c>
+      <c r="G963">
+        <v>71942444088</v>
+      </c>
+      <c r="H963">
+        <v>0.003993303233819745</v>
+      </c>
+      <c r="I963">
+        <v>0.02026959716345642</v>
+      </c>
+      <c r="J963">
+        <v>10.56491233495441</v>
+      </c>
+      <c r="K963">
+        <v>-2.397333824727574</v>
+      </c>
+      <c r="L963">
+        <v>0.01527405539517314</v>
+      </c>
+    </row>
+    <row r="964" spans="1:12">
+      <c r="A964" s="2">
+        <v>43545</v>
+      </c>
+      <c r="B964">
+        <v>4083.95</v>
+      </c>
+      <c r="C964">
+        <v>4097.36</v>
+      </c>
+      <c r="D964">
+        <v>4005.15</v>
+      </c>
+      <c r="E964">
+        <v>4029.33</v>
+      </c>
+      <c r="F964">
+        <v>10831212662</v>
+      </c>
+      <c r="G964">
+        <v>70926226882</v>
+      </c>
+      <c r="H964">
+        <v>-0.01432853420976521</v>
+      </c>
+      <c r="I964">
+        <v>0.02042960981661874</v>
+      </c>
+      <c r="J964">
+        <v>9.764330316215959</v>
+      </c>
+      <c r="K964">
+        <v>-2.242560760345069</v>
+      </c>
+      <c r="L964">
+        <v>0.01554743412069957</v>
+      </c>
+    </row>
+    <row r="965" spans="1:12">
+      <c r="A965" s="2">
+        <v>43546</v>
+      </c>
+      <c r="B965">
+        <v>4028.51</v>
+      </c>
+      <c r="C965">
+        <v>4053.91</v>
+      </c>
+      <c r="D965">
+        <v>4021.54</v>
+      </c>
+      <c r="E965">
+        <v>4023.97</v>
+      </c>
+      <c r="F965">
+        <v>9252935969</v>
+      </c>
+      <c r="G965">
+        <v>70840048102</v>
+      </c>
+      <c r="H965">
+        <v>-0.001331131534017871</v>
+      </c>
+      <c r="I965">
+        <v>0.02029296258973125</v>
+      </c>
+      <c r="J965">
+        <v>9.865756640828675</v>
+      </c>
+      <c r="K965">
+        <v>-2.219903676304245</v>
+      </c>
+      <c r="L965">
+        <v>0.01502557190254344</v>
+      </c>
+    </row>
+    <row r="966" spans="1:12">
+      <c r="A966" s="2">
+        <v>43547</v>
+      </c>
+      <c r="B966">
+        <v>4022.71</v>
+      </c>
+      <c r="C966">
+        <v>4049.88</v>
+      </c>
+      <c r="D966">
+        <v>4015.96</v>
+      </c>
+      <c r="E966">
+        <v>4035.83</v>
+      </c>
+      <c r="F966">
+        <v>9578850549</v>
+      </c>
+      <c r="G966">
+        <v>71056017910</v>
+      </c>
+      <c r="H966">
+        <v>0.002943003191200333</v>
+      </c>
+      <c r="I966">
+        <v>0.02017697529840089</v>
+      </c>
+      <c r="J966">
+        <v>10.41793886334294</v>
+      </c>
+      <c r="K966">
+        <v>-2.327789273182863</v>
+      </c>
+      <c r="L966">
+        <v>0.01464904932622877</v>
+      </c>
+    </row>
+    <row r="967" spans="1:12">
+      <c r="A967" s="2">
+        <v>43548</v>
+      </c>
+      <c r="B967">
+        <v>4035.16</v>
+      </c>
+      <c r="C967">
+        <v>4040.7</v>
+      </c>
+      <c r="D967">
+        <v>4006.19</v>
+      </c>
+      <c r="E967">
+        <v>4022.17</v>
+      </c>
+      <c r="F967">
+        <v>9144851065</v>
+      </c>
+      <c r="G967">
+        <v>70823042992</v>
+      </c>
+      <c r="H967">
+        <v>-0.003390422706651464</v>
+      </c>
+      <c r="I967">
+        <v>0.02005526564196747</v>
+      </c>
+      <c r="J967">
+        <v>10.45835167019623</v>
+      </c>
+      <c r="K967">
+        <v>-2.291980137945126</v>
+      </c>
+      <c r="L967">
+        <v>0.01422981786666835</v>
+      </c>
+    </row>
+    <row r="968" spans="1:12">
+      <c r="A968" s="2">
+        <v>43549</v>
+      </c>
+      <c r="B968">
+        <v>4024.11</v>
+      </c>
+      <c r="C968">
+        <v>4038.84</v>
+      </c>
+      <c r="D968">
+        <v>3934.03</v>
+      </c>
+      <c r="E968">
+        <v>3963.07</v>
+      </c>
+      <c r="F968">
+        <v>10359818883</v>
+      </c>
+      <c r="G968">
+        <v>69789872373</v>
+      </c>
+      <c r="H968">
+        <v>-0.01480258054718142</v>
+      </c>
+      <c r="I968">
+        <v>0.01919722929613644</v>
+      </c>
+      <c r="J968">
+        <v>11.67825894674626</v>
+      </c>
+      <c r="K968">
+        <v>-2.555888918869197</v>
+      </c>
+      <c r="L968">
+        <v>0.01340386350625826</v>
+      </c>
+    </row>
+    <row r="969" spans="1:12">
+      <c r="A969" s="2">
+        <v>43550</v>
+      </c>
+      <c r="B969">
+        <v>3969.23</v>
+      </c>
+      <c r="C969">
+        <v>3985.08</v>
+      </c>
+      <c r="D969">
+        <v>3944.75</v>
+      </c>
+      <c r="E969">
+        <v>3985.08</v>
+      </c>
+      <c r="F969">
+        <v>10707678815</v>
+      </c>
+      <c r="G969">
+        <v>70184147203</v>
+      </c>
+      <c r="H969">
+        <v>0.005538409884355389</v>
+      </c>
+      <c r="I969">
+        <v>0.01134646816501837</v>
+      </c>
+      <c r="J969">
+        <v>2.075339995151639</v>
+      </c>
+      <c r="K969">
+        <v>0.7591026195191487</v>
+      </c>
+      <c r="L969">
+        <v>0.01002651992222447</v>
+      </c>
+    </row>
+    <row r="970" spans="1:12">
+      <c r="A970" s="2">
+        <v>43551</v>
+      </c>
+      <c r="B970">
+        <v>3984.24</v>
+      </c>
+      <c r="C970">
+        <v>4087.07</v>
+      </c>
+      <c r="D970">
+        <v>3977.81</v>
+      </c>
+      <c r="E970">
+        <v>4087.07</v>
+      </c>
+      <c r="F970">
+        <v>10897131934</v>
+      </c>
+      <c r="G970">
+        <v>71987847571</v>
+      </c>
+      <c r="H970">
+        <v>0.02527094458985246</v>
+      </c>
+      <c r="I970">
+        <v>0.01174200263655817</v>
+      </c>
+      <c r="J970">
+        <v>1.824308439113606</v>
+      </c>
+      <c r="K970">
+        <v>0.8145046462591244</v>
+      </c>
+      <c r="L970">
+        <v>0.01030145062453999</v>
+      </c>
+    </row>
+    <row r="971" spans="1:12">
+      <c r="A971" s="2">
+        <v>43552</v>
+      </c>
+      <c r="B971">
+        <v>4087.58</v>
+      </c>
+      <c r="C971">
+        <v>4094.9</v>
+      </c>
+      <c r="D971">
+        <v>4040.27</v>
+      </c>
+      <c r="E971">
+        <v>4069.11</v>
+      </c>
+      <c r="F971">
+        <v>9353915899</v>
+      </c>
+      <c r="G971">
+        <v>71678998915</v>
+      </c>
+      <c r="H971">
+        <v>-0.004404029589476721</v>
+      </c>
+      <c r="I971">
+        <v>0.01167640638144265</v>
+      </c>
+      <c r="J971">
+        <v>1.897585986913381</v>
+      </c>
+      <c r="K971">
+        <v>0.8133151741900586</v>
+      </c>
+      <c r="L971">
+        <v>0.01017188047150222</v>
+      </c>
+    </row>
+    <row r="972" spans="1:12">
+      <c r="A972" s="2">
+        <v>43553</v>
+      </c>
+      <c r="B972">
+        <v>4068.3</v>
+      </c>
+      <c r="C972">
+        <v>4113.5</v>
+      </c>
+      <c r="D972">
+        <v>4034.1</v>
+      </c>
+      <c r="E972">
+        <v>4098.37</v>
+      </c>
+      <c r="F972">
+        <v>10918665557</v>
+      </c>
+      <c r="G972">
+        <v>72202088875</v>
+      </c>
+      <c r="H972">
+        <v>0.007165031362978524</v>
+      </c>
+      <c r="I972">
+        <v>0.01170508951611074</v>
+      </c>
+      <c r="J972">
+        <v>1.766920031542857</v>
+      </c>
+      <c r="K972">
+        <v>0.7378679383522594</v>
+      </c>
+      <c r="L972">
+        <v>0.01044425464101292</v>
+      </c>
+    </row>
+    <row r="973" spans="1:12">
+      <c r="A973" s="2">
+        <v>43554</v>
+      </c>
+      <c r="B973">
+        <v>4092.14</v>
+      </c>
+      <c r="C973">
+        <v>4296.81</v>
+      </c>
+      <c r="D973">
+        <v>4053.91</v>
+      </c>
+      <c r="E973">
+        <v>4106.66</v>
+      </c>
+      <c r="F973">
+        <v>9732688060</v>
+      </c>
+      <c r="G973">
+        <v>72355190645</v>
+      </c>
+      <c r="H973">
+        <v>0.002020712372987177</v>
+      </c>
+      <c r="I973">
+        <v>0.01170324395452334</v>
+      </c>
+      <c r="J973">
+        <v>1.760063302210622</v>
+      </c>
+      <c r="K973">
+        <v>0.7286351573038127</v>
+      </c>
+      <c r="L973">
+        <v>0.0104896381162617</v>
+      </c>
+    </row>
+    <row r="974" spans="1:12">
+      <c r="A974" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B974">
+        <v>4105.46</v>
+      </c>
+      <c r="C974">
+        <v>4113.02</v>
+      </c>
+      <c r="D974">
+        <v>4094.1</v>
+      </c>
+      <c r="E974">
+        <v>4105.4</v>
+      </c>
+      <c r="F974">
+        <v>9045122443</v>
+      </c>
+      <c r="G974">
+        <v>72339379036</v>
+      </c>
+      <c r="H974">
+        <v>-0.0003068657583806811</v>
+      </c>
+      <c r="I974">
+        <v>0.01171061788955037</v>
+      </c>
+      <c r="J974">
+        <v>1.762173042783116</v>
+      </c>
+      <c r="K974">
+        <v>0.741119466544534</v>
+      </c>
+      <c r="L974">
+        <v>0.0104484598050793</v>
+      </c>
+    </row>
+    <row r="975" spans="1:12">
+      <c r="A975" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B975">
+        <v>4105.36</v>
+      </c>
+      <c r="C975">
+        <v>4164.95</v>
+      </c>
+      <c r="D975">
+        <v>4096.9</v>
+      </c>
+      <c r="E975">
+        <v>4158.18</v>
+      </c>
+      <c r="F975">
+        <v>10157794171</v>
+      </c>
+      <c r="G975">
+        <v>73269368747</v>
+      </c>
+      <c r="H975">
+        <v>0.01277429824118315</v>
+      </c>
+      <c r="I975">
+        <v>0.01187112083008549</v>
+      </c>
+      <c r="J975">
+        <v>1.418079395676087</v>
+      </c>
+      <c r="K975">
+        <v>0.634631067523453</v>
+      </c>
+      <c r="L975">
+        <v>0.01094777288932411</v>
+      </c>
+    </row>
+    <row r="976" spans="1:12">
+      <c r="A976" s="2">
+        <v>43557</v>
+      </c>
+      <c r="B976">
+        <v>4156.92</v>
+      </c>
+      <c r="C976">
+        <v>4905.95</v>
+      </c>
+      <c r="D976">
+        <v>4155.32</v>
+      </c>
+      <c r="E976">
+        <v>4879.88</v>
+      </c>
+      <c r="F976">
+        <v>21315047816</v>
+      </c>
+      <c r="G976">
+        <v>85986009273</v>
+      </c>
+      <c r="H976">
+        <v>0.1600431508566533</v>
+      </c>
+      <c r="I976">
+        <v>0.03105883306422852</v>
+      </c>
+      <c r="J976">
+        <v>21.17739821196684</v>
+      </c>
+      <c r="K976">
+        <v>4.289322261987112</v>
+      </c>
+      <c r="L976">
+        <v>0.01748024485567479</v>
+      </c>
+    </row>
+    <row r="977" spans="1:12">
+      <c r="A977" s="2">
+        <v>43558</v>
+      </c>
+      <c r="B977">
+        <v>4879.96</v>
+      </c>
+      <c r="C977">
+        <v>5307</v>
+      </c>
+      <c r="D977">
+        <v>4876.62</v>
+      </c>
+      <c r="E977">
+        <v>4973.02</v>
+      </c>
+      <c r="F977">
+        <v>22899891582</v>
+      </c>
+      <c r="G977">
+        <v>87655288145</v>
+      </c>
+      <c r="H977">
+        <v>0.01890667204300911</v>
+      </c>
+      <c r="I977">
+        <v>0.03057615816261035</v>
+      </c>
+      <c r="J977">
+        <v>21.79646716759278</v>
+      </c>
+      <c r="K977">
+        <v>4.388598959940768</v>
+      </c>
+      <c r="L977">
+        <v>0.01729102550888189</v>
+      </c>
+    </row>
+    <row r="978" spans="1:12">
+      <c r="A978" s="2">
+        <v>43559</v>
+      </c>
+      <c r="B978">
+        <v>4971.31</v>
+      </c>
+      <c r="C978">
+        <v>5063.16</v>
+      </c>
+      <c r="D978">
+        <v>4836.79</v>
+      </c>
+      <c r="E978">
+        <v>4922.8</v>
+      </c>
+      <c r="F978">
+        <v>18251810240</v>
+      </c>
+      <c r="G978">
+        <v>86778727821</v>
+      </c>
+      <c r="H978">
+        <v>-0.01014982712574231</v>
+      </c>
+      <c r="I978">
+        <v>0.03037176742895536</v>
+      </c>
+      <c r="J978">
+        <v>23.49929423921616</v>
+      </c>
+      <c r="K978">
+        <v>4.605320775340932</v>
+      </c>
+      <c r="L978">
+        <v>0.01619241632719648</v>
+      </c>
+    </row>
+    <row r="979" spans="1:12">
+      <c r="A979" s="2">
+        <v>43560</v>
+      </c>
+      <c r="B979">
+        <v>4922.81</v>
+      </c>
+      <c r="C979">
+        <v>5053.51</v>
+      </c>
+      <c r="D979">
+        <v>4919.49</v>
+      </c>
+      <c r="E979">
+        <v>5036.68</v>
+      </c>
+      <c r="F979">
+        <v>16837325387</v>
+      </c>
+      <c r="G979">
+        <v>88796118650</v>
+      </c>
+      <c r="H979">
+        <v>0.02286966055046413</v>
+      </c>
+      <c r="I979">
+        <v>0.03047285589703117</v>
+      </c>
+      <c r="J979">
+        <v>22.67135730180777</v>
+      </c>
+      <c r="K979">
+        <v>4.490768165435246</v>
+      </c>
+      <c r="L979">
+        <v>0.01707915776693905</v>
+      </c>
+    </row>
+    <row r="980" spans="1:12">
+      <c r="A980" s="2">
+        <v>43561</v>
+      </c>
+      <c r="B980">
+        <v>5036.79</v>
+      </c>
+      <c r="C980">
+        <v>5205.82</v>
+      </c>
+      <c r="D980">
+        <v>4992.22</v>
+      </c>
+      <c r="E980">
+        <v>5059.82</v>
+      </c>
+      <c r="F980">
+        <v>16929795194</v>
+      </c>
+      <c r="G980">
+        <v>89212733450</v>
+      </c>
+      <c r="H980">
+        <v>0.004583774677596963</v>
+      </c>
+      <c r="I980">
+        <v>0.03045699429293848</v>
+      </c>
+      <c r="J980">
+        <v>22.66555245099417</v>
+      </c>
+      <c r="K980">
+        <v>4.488742265539134</v>
+      </c>
+      <c r="L980">
+        <v>0.01718982571422416</v>
+      </c>
+    </row>
+    <row r="981" spans="1:12">
+      <c r="A981" s="2">
+        <v>43562</v>
+      </c>
+      <c r="B981">
+        <v>5062.79</v>
+      </c>
+      <c r="C981">
+        <v>5235.19</v>
+      </c>
+      <c r="D981">
+        <v>5050.41</v>
+      </c>
+      <c r="E981">
+        <v>5198.9</v>
+      </c>
+      <c r="F981">
+        <v>16655416140</v>
+      </c>
+      <c r="G981">
+        <v>91674230186</v>
+      </c>
+      <c r="H981">
+        <v>0.02711615520432176</v>
+      </c>
+      <c r="I981">
+        <v>0.03056319020077905</v>
+      </c>
+      <c r="J981">
+        <v>21.65499256191567</v>
+      </c>
+      <c r="K981">
+        <v>4.34780334202112</v>
+      </c>
+      <c r="L981">
+        <v>0.01822717908812889</v>
+      </c>
+    </row>
+    <row r="982" spans="1:12">
+      <c r="A982" s="2">
+        <v>43563</v>
+      </c>
+      <c r="B982">
+        <v>5199.84</v>
+      </c>
+      <c r="C982">
+        <v>5318.84</v>
+      </c>
+      <c r="D982">
+        <v>5148.21</v>
+      </c>
+      <c r="E982">
+        <v>5289.77</v>
+      </c>
+      <c r="F982">
+        <v>17154113634</v>
+      </c>
+      <c r="G982">
+        <v>93286365973</v>
+      </c>
+      <c r="H982">
+        <v>0.0173277019157041</v>
+      </c>
+      <c r="I982">
+        <v>0.03057510145964553</v>
+      </c>
+      <c r="J982">
+        <v>21.58326086035373</v>
+      </c>
+      <c r="K982">
+        <v>4.337705727564736</v>
+      </c>
+      <c r="L982">
+        <v>0.01827799359000145</v>
+      </c>
+    </row>
+    <row r="983" spans="1:12">
+      <c r="A983" s="2">
+        <v>43564</v>
+      </c>
+      <c r="B983">
+        <v>5289.92</v>
+      </c>
+      <c r="C983">
+        <v>5289.92</v>
+      </c>
+      <c r="D983">
+        <v>5167.42</v>
+      </c>
+      <c r="E983">
+        <v>5204.96</v>
+      </c>
+      <c r="F983">
+        <v>14722104361</v>
+      </c>
+      <c r="G983">
+        <v>91799330425</v>
+      </c>
+      <c r="H983">
+        <v>-0.01616274954507624</v>
+      </c>
+      <c r="I983">
+        <v>0.03085620718209088</v>
+      </c>
+      <c r="J983">
+        <v>20.9836982831097</v>
+      </c>
+      <c r="K983">
+        <v>4.247024767894724</v>
+      </c>
+      <c r="L983">
+        <v>0.01883966799001415</v>
+      </c>
+    </row>
+    <row r="984" spans="1:12">
+      <c r="A984" s="2">
+        <v>43565</v>
+      </c>
+      <c r="B984">
+        <v>5204.11</v>
+      </c>
+      <c r="C984">
+        <v>5421.65</v>
+      </c>
+      <c r="D984">
+        <v>5193.38</v>
+      </c>
+      <c r="E984">
+        <v>5324.55</v>
+      </c>
+      <c r="F984">
+        <v>15504590933</v>
+      </c>
+      <c r="G984">
+        <v>93918439274</v>
+      </c>
+      <c r="H984">
+        <v>0.02271618386325791</v>
+      </c>
+      <c r="I984">
+        <v>0.03068979025894283</v>
+      </c>
+      <c r="J984">
+        <v>20.77239567887443</v>
+      </c>
+      <c r="K984">
+        <v>4.210898691861064</v>
+      </c>
+      <c r="L984">
+        <v>0.01929542303189502</v>
+      </c>
+    </row>
+    <row r="985" spans="1:12">
+      <c r="A985" s="2">
+        <v>43566</v>
+      </c>
+      <c r="B985">
+        <v>5325.08</v>
+      </c>
+      <c r="C985">
+        <v>5354.23</v>
+      </c>
+      <c r="D985">
+        <v>5017.3</v>
+      </c>
+      <c r="E985">
+        <v>5064.49</v>
+      </c>
+      <c r="F985">
+        <v>16555616019</v>
+      </c>
+      <c r="G985">
+        <v>89341168457</v>
+      </c>
+      <c r="H985">
+        <v>-0.05007475936812966</v>
+      </c>
+      <c r="I985">
+        <v>0.03258370336157407</v>
+      </c>
+      <c r="J985">
+        <v>16.94613179532118</v>
+      </c>
+      <c r="K985">
+        <v>3.452043342492835</v>
+      </c>
+      <c r="L985">
+        <v>0.02137982851665437</v>
+      </c>
+    </row>
+    <row r="986" spans="1:12">
+      <c r="A986" s="2">
+        <v>43567</v>
+      </c>
+      <c r="B986">
+        <v>5061.2</v>
+      </c>
+      <c r="C986">
+        <v>5103.27</v>
+      </c>
+      <c r="D986">
+        <v>4955.85</v>
+      </c>
+      <c r="E986">
+        <v>5089.54</v>
+      </c>
+      <c r="F986">
+        <v>13675206312</v>
+      </c>
+      <c r="G986">
+        <v>89792633045</v>
+      </c>
+      <c r="H986">
+        <v>0.004934011583394238</v>
+      </c>
+      <c r="I986">
+        <v>0.0325450402351621</v>
+      </c>
+      <c r="J986">
+        <v>16.95205951038745</v>
+      </c>
+      <c r="K986">
+        <v>3.44685734775883</v>
+      </c>
+      <c r="L986">
+        <v>0.02156405574738211</v>
+      </c>
+    </row>
+    <row r="987" spans="1:12">
+      <c r="A987" s="2">
+        <v>43568</v>
+      </c>
+      <c r="B987">
+        <v>5088.85</v>
+      </c>
+      <c r="C987">
+        <v>5127.12</v>
+      </c>
+      <c r="D987">
+        <v>5061.59</v>
+      </c>
+      <c r="E987">
+        <v>5096.59</v>
+      </c>
+      <c r="F987">
+        <v>10823289598</v>
+      </c>
+      <c r="G987">
+        <v>89925574875</v>
+      </c>
+      <c r="H987">
+        <v>0.001384235450698768</v>
+      </c>
+      <c r="I987">
+        <v>0.0325642896914921</v>
+      </c>
+      <c r="J987">
+        <v>16.95482262554602</v>
+      </c>
+      <c r="K987">
+        <v>3.450671575466274</v>
+      </c>
+      <c r="L987">
+        <v>0.02142859879153175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/new_data/btc_data.xlsx
+++ b/new_data/btc_data.xlsx
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L987"/>
+  <dimension ref="A1:L988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34632,6 +34632,44 @@
         <v>0.02142859879153175</v>
       </c>
     </row>
+    <row r="988" spans="1:12">
+      <c r="A988" s="2">
+        <v>43569</v>
+      </c>
+      <c r="B988">
+        <v>5095.76</v>
+      </c>
+      <c r="C988">
+        <v>5184.02</v>
+      </c>
+      <c r="D988">
+        <v>5053.57</v>
+      </c>
+      <c r="E988">
+        <v>5167.72</v>
+      </c>
+      <c r="F988">
+        <v>10391952498</v>
+      </c>
+      <c r="G988">
+        <v>91188595341</v>
+      </c>
+      <c r="H988">
+        <v>0.01385989679769395</v>
+      </c>
+      <c r="I988">
+        <v>0.03243656534406333</v>
+      </c>
+      <c r="J988">
+        <v>4.023579655920527</v>
+      </c>
+      <c r="K988">
+        <v>-0.1830279551569738</v>
+      </c>
+      <c r="L988">
+        <v>0.02162592499728229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
